--- a/Code/Results/Cases/Case_8_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.037295938148588</v>
+        <v>3.626111261079188</v>
       </c>
       <c r="C2">
-        <v>1.735202810404985</v>
+        <v>1.831904235925208</v>
       </c>
       <c r="D2">
-        <v>0.03647609438181121</v>
+        <v>0.02641987673937685</v>
       </c>
       <c r="E2">
-        <v>1.364438806713579</v>
+        <v>1.360717778253957</v>
       </c>
       <c r="F2">
-        <v>2.127804991980227</v>
+        <v>1.797293048797073</v>
       </c>
       <c r="G2">
-        <v>0.0007864001876765859</v>
+        <v>0.001479742433338538</v>
       </c>
       <c r="H2">
-        <v>0.01233096353218976</v>
+        <v>0.01191607210358775</v>
       </c>
       <c r="I2">
-        <v>0.008083126823619224</v>
+        <v>0.007503576485704322</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9458738514515801</v>
+        <v>0.7285381914611833</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3437069278808949</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2210739707321281</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.73868796734941</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.6641865828734828</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.503048680323445</v>
+        <v>3.16281831097541</v>
       </c>
       <c r="C3">
-        <v>1.500483568163645</v>
+        <v>1.58653751857122</v>
       </c>
       <c r="D3">
-        <v>0.0351456306378104</v>
+        <v>0.0253679779017979</v>
       </c>
       <c r="E3">
-        <v>1.179321984157099</v>
+        <v>1.181717860736939</v>
       </c>
       <c r="F3">
-        <v>1.892696289633776</v>
+        <v>1.607049897891216</v>
       </c>
       <c r="G3">
-        <v>0.000792645018051941</v>
+        <v>0.0001657417786150306</v>
       </c>
       <c r="H3">
-        <v>0.007925466540273263</v>
+        <v>0.008164272128149963</v>
       </c>
       <c r="I3">
-        <v>0.004418386288812304</v>
+        <v>0.004848544240188879</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8641598392015766</v>
+        <v>0.6734752386047944</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3335203567023086</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.189989443729381</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7676220182662981</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.6914621574999185</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.175776430954272</v>
+        <v>2.877504593321078</v>
       </c>
       <c r="C4">
-        <v>1.357998894850539</v>
+        <v>1.436964133940933</v>
       </c>
       <c r="D4">
-        <v>0.03429142484302972</v>
+        <v>0.02467523052603049</v>
       </c>
       <c r="E4">
-        <v>1.066784017458858</v>
+        <v>1.072402095602698</v>
       </c>
       <c r="F4">
-        <v>1.749972506054888</v>
+        <v>1.490537631475121</v>
       </c>
       <c r="G4">
-        <v>0.0007965852220084363</v>
+        <v>1.071164569799166E-05</v>
       </c>
       <c r="H4">
-        <v>0.005643401874985243</v>
+        <v>0.006153895441900925</v>
       </c>
       <c r="I4">
-        <v>0.002736043882764605</v>
+        <v>0.00352089278545975</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8144820665619648</v>
+        <v>0.6395538560026139</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.326858447135109</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1717725547767692</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7857479648720691</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7084770381928776</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.040036131601255</v>
+        <v>2.758780123630515</v>
       </c>
       <c r="C5">
-        <v>1.300853019952228</v>
+        <v>1.376797634728575</v>
       </c>
       <c r="D5">
-        <v>0.03386487546767469</v>
+        <v>0.02433855196064449</v>
       </c>
       <c r="E5">
-        <v>1.0211246730548</v>
+        <v>1.027946448395156</v>
       </c>
       <c r="F5">
-        <v>1.690143053856033</v>
+        <v>1.441353965778433</v>
       </c>
       <c r="G5">
-        <v>0.0007982293442308215</v>
+        <v>0.0001001927118978174</v>
       </c>
       <c r="H5">
-        <v>0.004807424275915961</v>
+        <v>0.0053998259704644</v>
       </c>
       <c r="I5">
-        <v>0.002234929183673184</v>
+        <v>0.003115768780268979</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7929980196388087</v>
+        <v>0.6245956194282485</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3235719624604769</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1642007846826203</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7926644023589731</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7151947270369741</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.014456568540652</v>
+        <v>2.736347285648833</v>
       </c>
       <c r="C6">
-        <v>1.292078847044081</v>
+        <v>1.367497939017994</v>
       </c>
       <c r="D6">
-        <v>0.03370952596055332</v>
+        <v>0.02423012124113377</v>
       </c>
       <c r="E6">
-        <v>1.013513342394006</v>
+        <v>1.020538211303233</v>
       </c>
       <c r="F6">
-        <v>1.67776566838883</v>
+        <v>1.431055924194766</v>
       </c>
       <c r="G6">
-        <v>0.0007985173611689868</v>
+        <v>0.0001252022446611989</v>
       </c>
       <c r="H6">
-        <v>0.004670625767458025</v>
+        <v>0.005275679597793403</v>
       </c>
       <c r="I6">
-        <v>0.002233253902618415</v>
+        <v>0.003142487394868887</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7877981376981893</v>
+        <v>0.6207702773150388</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3224490779554188</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1625169097839283</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7931454714921564</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.715977100486783</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.165587762301129</v>
+        <v>2.857257651699683</v>
       </c>
       <c r="C7">
-        <v>1.359129873487234</v>
+        <v>1.427983708652391</v>
       </c>
       <c r="D7">
-        <v>0.03405569300913314</v>
+        <v>0.02424845936985065</v>
       </c>
       <c r="E7">
-        <v>1.066047277534807</v>
+        <v>1.071472937264133</v>
       </c>
       <c r="F7">
-        <v>1.742419449503814</v>
+        <v>1.471805097797031</v>
       </c>
       <c r="G7">
-        <v>0.0007966432727864949</v>
+        <v>0.0001612994682806956</v>
       </c>
       <c r="H7">
-        <v>0.005620954018390023</v>
+        <v>0.006113286422668285</v>
       </c>
       <c r="I7">
-        <v>0.00291206715115333</v>
+        <v>0.003711234662597818</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8097056796556004</v>
+        <v>0.6302222834934028</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3229694932448695</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1686215121573014</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7840150498787857</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7064232514197775</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.841641476110397</v>
+        <v>3.418783997112826</v>
       </c>
       <c r="C8">
-        <v>1.656428478040993</v>
+        <v>1.715718271059131</v>
       </c>
       <c r="D8">
-        <v>0.03571839474374272</v>
+        <v>0.02499153131024556</v>
       </c>
       <c r="E8">
-        <v>1.300170150491681</v>
+        <v>1.297870670819322</v>
       </c>
       <c r="F8">
-        <v>2.037343073716428</v>
+        <v>1.683069655257526</v>
       </c>
       <c r="G8">
-        <v>0.0007885779565883626</v>
+        <v>0.001970855003779803</v>
       </c>
       <c r="H8">
-        <v>0.01069917368625772</v>
+        <v>0.01045173412145385</v>
       </c>
       <c r="I8">
-        <v>0.006890458334046556</v>
+        <v>0.006643324121306193</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9115937971374706</v>
+        <v>0.686624916971553</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3310593264969341</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2020506564723803</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7462222313650066</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.6689181456176811</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.192506475037078</v>
+        <v>4.568803064245856</v>
       </c>
       <c r="C9">
-        <v>2.251966712253648</v>
+        <v>2.323153822487143</v>
       </c>
       <c r="D9">
-        <v>0.03911103966493457</v>
+        <v>0.02729058759945957</v>
       </c>
       <c r="E9">
-        <v>1.770770728106072</v>
+        <v>1.748967253786319</v>
       </c>
       <c r="F9">
-        <v>2.644178786861772</v>
+        <v>2.155870082250232</v>
       </c>
       <c r="G9">
-        <v>0.0007734953063633246</v>
+        <v>0.00921976621063525</v>
       </c>
       <c r="H9">
-        <v>0.02450037595211185</v>
+        <v>0.02166900828757079</v>
       </c>
       <c r="I9">
-        <v>0.01959313272976715</v>
+        <v>0.01486315191189735</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.124660635663545</v>
+        <v>0.8230426020704869</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3546859386766243</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2837296280653803</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6785401035637904</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.6033962584325865</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.150025564954262</v>
+        <v>5.307201134442153</v>
       </c>
       <c r="C10">
-        <v>2.676025558211393</v>
+        <v>2.687843974096779</v>
       </c>
       <c r="D10">
-        <v>0.04003515972792826</v>
+        <v>0.02680415086058296</v>
       </c>
       <c r="E10">
-        <v>2.021558797946639</v>
+        <v>1.980747770019718</v>
       </c>
       <c r="F10">
-        <v>3.058252069844428</v>
+        <v>2.39864297828835</v>
       </c>
       <c r="G10">
-        <v>0.0007632253787451898</v>
+        <v>0.02432325666247337</v>
       </c>
       <c r="H10">
-        <v>0.03658560362054697</v>
+        <v>0.03079458353886322</v>
       </c>
       <c r="I10">
-        <v>0.03254229707726708</v>
+        <v>0.02234398625789513</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.262946567413863</v>
+        <v>0.8757923977937523</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3530363662680713</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.329485797817199</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6238834636788155</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.5521488987110814</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.204176143641064</v>
+        <v>5.227649592932153</v>
       </c>
       <c r="C11">
-        <v>2.627541191148168</v>
+        <v>2.502923924757113</v>
       </c>
       <c r="D11">
-        <v>0.03058151204710313</v>
+        <v>0.02337017647528139</v>
       </c>
       <c r="E11">
-        <v>1.323144623356384</v>
+        <v>1.284511971794302</v>
       </c>
       <c r="F11">
-        <v>2.868914182835255</v>
+        <v>2.098865702684634</v>
       </c>
       <c r="G11">
-        <v>0.0007617659266611484</v>
+        <v>0.05726933007081669</v>
       </c>
       <c r="H11">
-        <v>0.05159056228618297</v>
+        <v>0.04542989158415978</v>
       </c>
       <c r="I11">
-        <v>0.03497155933668061</v>
+        <v>0.02323031267089881</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.142149561284242</v>
+        <v>0.7245941915494925</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2906371367584981</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2792914122995995</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5510114232247503</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.5370117887504016</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.060372489568181</v>
+        <v>5.060614441713994</v>
       </c>
       <c r="C12">
-        <v>2.496457329152349</v>
+        <v>2.312482787165777</v>
       </c>
       <c r="D12">
-        <v>0.02503522603389108</v>
+        <v>0.02470072617151509</v>
       </c>
       <c r="E12">
-        <v>0.8155959198682154</v>
+        <v>0.7831812145404768</v>
       </c>
       <c r="F12">
-        <v>2.638797384364324</v>
+        <v>1.860675659561792</v>
       </c>
       <c r="G12">
-        <v>0.0007623476459501772</v>
+        <v>0.08024341441787186</v>
       </c>
       <c r="H12">
-        <v>0.08644937033661648</v>
+        <v>0.08066439773824641</v>
       </c>
       <c r="I12">
-        <v>0.03406073141094357</v>
+        <v>0.02242339090260348</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.023409402759739</v>
+        <v>0.6189470216575401</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2508383202247728</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.239717219177102</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5174430542689272</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.5553428525638608</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.744663346310915</v>
+        <v>4.832693418067265</v>
       </c>
       <c r="C13">
-        <v>2.299101093534603</v>
+        <v>2.129768452241137</v>
       </c>
       <c r="D13">
-        <v>0.02178871380833192</v>
+        <v>0.02733507997088935</v>
       </c>
       <c r="E13">
-        <v>0.4272046984453084</v>
+        <v>0.4030610564625263</v>
       </c>
       <c r="F13">
-        <v>2.355104666406064</v>
+        <v>1.665815505364549</v>
       </c>
       <c r="G13">
-        <v>0.0007645672188188717</v>
+        <v>0.07262636193688365</v>
       </c>
       <c r="H13">
-        <v>0.1379412891249245</v>
+        <v>0.1330800075629242</v>
       </c>
       <c r="I13">
-        <v>0.03082895687216602</v>
+        <v>0.02073322565127977</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8930098881668229</v>
+        <v>0.5422133038210717</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2247642606095965</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2072546434393203</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5083826044874735</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.5839832078646765</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.446441145299389</v>
+        <v>4.64183239290918</v>
       </c>
       <c r="C14">
-        <v>2.133973702588548</v>
+        <v>2.003575074182777</v>
       </c>
       <c r="D14">
-        <v>0.02082357032921323</v>
+        <v>0.02919595619735915</v>
       </c>
       <c r="E14">
-        <v>0.2287052645293102</v>
+        <v>0.2103350621094506</v>
       </c>
       <c r="F14">
-        <v>2.133996972164809</v>
+        <v>1.543613644651458</v>
       </c>
       <c r="G14">
-        <v>0.0007668278622121979</v>
+        <v>0.05464038356481637</v>
       </c>
       <c r="H14">
-        <v>0.1843208884429259</v>
+        <v>0.1802578617221826</v>
       </c>
       <c r="I14">
-        <v>0.02777861738683551</v>
+        <v>0.01927812253207861</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7971158319240317</v>
+        <v>0.4984618828760716</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2112796339526319</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1868676322561456</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5144318107219625</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.6055026183889609</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.334832049979923</v>
+        <v>4.576839864546514</v>
       </c>
       <c r="C15">
-        <v>2.080459526747291</v>
+        <v>1.971619331252498</v>
       </c>
       <c r="D15">
-        <v>0.02078209953677179</v>
+        <v>0.02936035948617288</v>
       </c>
       <c r="E15">
-        <v>0.1890522538985238</v>
+        <v>0.1724124758674606</v>
       </c>
       <c r="F15">
-        <v>2.066283047811197</v>
+        <v>1.51639705729653</v>
       </c>
       <c r="G15">
-        <v>0.0007677747822681926</v>
+        <v>0.04577383703841065</v>
       </c>
       <c r="H15">
-        <v>0.1958131986570493</v>
+        <v>0.1920565661601756</v>
       </c>
       <c r="I15">
-        <v>0.02664122827156579</v>
+        <v>0.01881651832357178</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7694801886540716</v>
+        <v>0.4903359253034907</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2094696635704274</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1821262729415309</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5192770617104649</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.6101042256645073</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.993280169268985</v>
+        <v>4.4079919068717</v>
       </c>
       <c r="C16">
-        <v>1.946640027342085</v>
+        <v>1.94031328435949</v>
       </c>
       <c r="D16">
-        <v>0.02111125305367567</v>
+        <v>0.02635478921819967</v>
       </c>
       <c r="E16">
-        <v>0.1803409300707344</v>
+        <v>0.1680409062077146</v>
       </c>
       <c r="F16">
-        <v>1.9507924299254</v>
+        <v>1.54131472716206</v>
       </c>
       <c r="G16">
-        <v>0.000771644098698656</v>
+        <v>0.01624498249161732</v>
       </c>
       <c r="H16">
-        <v>0.1794359580918439</v>
+        <v>0.176809411536226</v>
       </c>
       <c r="I16">
-        <v>0.02209989025925907</v>
+        <v>0.01673955207571343</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7379448576339911</v>
+        <v>0.5171122548411091</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2249606994549325</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1848661604307367</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5420014687567534</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.6020340338370858</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.887643909713063</v>
+        <v>4.362573014419354</v>
       </c>
       <c r="C17">
-        <v>1.930353932876926</v>
+        <v>1.970873414075697</v>
       </c>
       <c r="D17">
-        <v>0.02164694005978274</v>
+        <v>0.02422554264569143</v>
       </c>
       <c r="E17">
-        <v>0.2642798028837632</v>
+        <v>0.2529486260681253</v>
       </c>
       <c r="F17">
-        <v>1.977320865925492</v>
+        <v>1.61311793594038</v>
       </c>
       <c r="G17">
-        <v>0.0007734523508808065</v>
+        <v>0.009718167842787118</v>
       </c>
       <c r="H17">
-        <v>0.1403122602955307</v>
+        <v>0.1381245176211081</v>
       </c>
       <c r="I17">
-        <v>0.02020154265713536</v>
+        <v>0.01584207344339816</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7633664821025334</v>
+        <v>0.5569306506547065</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2432402596628052</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1956337827641477</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.555431822658135</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.5926808071248715</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.979732600752811</v>
+        <v>4.450297602476667</v>
       </c>
       <c r="C18">
-        <v>2.013319772488558</v>
+        <v>2.07973776078552</v>
       </c>
       <c r="D18">
-        <v>0.02354578264645468</v>
+        <v>0.02295969355036132</v>
       </c>
       <c r="E18">
-        <v>0.5013396250847606</v>
+        <v>0.4883017020452627</v>
       </c>
       <c r="F18">
-        <v>2.137589025969035</v>
+        <v>1.764182247971405</v>
       </c>
       <c r="G18">
-        <v>0.0007735145524536234</v>
+        <v>0.008625609256862177</v>
       </c>
       <c r="H18">
-        <v>0.08839885629713962</v>
+        <v>0.08618666251182816</v>
       </c>
       <c r="I18">
-        <v>0.02002713362469155</v>
+        <v>0.01570380594961218</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8466138500298115</v>
+        <v>0.6264165028901445</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2709997258284815</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2199543409965656</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.569012878345994</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.5808874818721641</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.212453679561861</v>
+        <v>4.637796825576856</v>
       </c>
       <c r="C19">
-        <v>2.178510481828937</v>
+        <v>2.260328143042216</v>
       </c>
       <c r="D19">
-        <v>0.02789460761995066</v>
+        <v>0.02351102065108868</v>
       </c>
       <c r="E19">
-        <v>0.9442594826827388</v>
+        <v>0.926582490938074</v>
       </c>
       <c r="F19">
-        <v>2.391299953899903</v>
+        <v>1.974207802110556</v>
       </c>
       <c r="G19">
-        <v>0.0007720013620430325</v>
+        <v>0.009576909392961408</v>
       </c>
       <c r="H19">
-        <v>0.04677630931162469</v>
+        <v>0.04409955015006517</v>
       </c>
       <c r="I19">
-        <v>0.02184710078901553</v>
+        <v>0.01689852592952601</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9687923399129943</v>
+        <v>0.716568311523254</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3049303551022717</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2542680397876254</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5905841810180483</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.5735851897190809</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.868498422549919</v>
+        <v>5.130745548266702</v>
       </c>
       <c r="C20">
-        <v>2.568470865513973</v>
+        <v>2.63405054576225</v>
       </c>
       <c r="D20">
-        <v>0.03903600323394585</v>
+        <v>0.02735604714501605</v>
       </c>
       <c r="E20">
-        <v>1.950199336681052</v>
+        <v>1.916042207228159</v>
       </c>
       <c r="F20">
-        <v>2.924964515242607</v>
+        <v>2.359596970080219</v>
       </c>
       <c r="G20">
-        <v>0.0007660131476015512</v>
+        <v>0.01605013334535332</v>
       </c>
       <c r="H20">
-        <v>0.03306529516799284</v>
+        <v>0.02831566227575699</v>
       </c>
       <c r="I20">
-        <v>0.0292523229814563</v>
+        <v>0.02116563539325966</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.211102133433542</v>
+        <v>0.8695630599346345</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3562361723515437</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3203110877574034</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6325901155519738</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.5658377122623675</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.680042416078209</v>
+        <v>5.529048791402545</v>
       </c>
       <c r="C21">
-        <v>2.942999405756154</v>
+        <v>2.762040939156805</v>
       </c>
       <c r="D21">
-        <v>0.04184862562871672</v>
+        <v>0.02443434945648182</v>
       </c>
       <c r="E21">
-        <v>2.309611666319014</v>
+        <v>2.250416675421036</v>
       </c>
       <c r="F21">
-        <v>3.320299371717738</v>
+        <v>2.371926526676774</v>
       </c>
       <c r="G21">
-        <v>0.0007576320753852048</v>
+        <v>0.08161266710246906</v>
       </c>
       <c r="H21">
-        <v>0.04516142444462989</v>
+        <v>0.03656600708268076</v>
       </c>
       <c r="I21">
-        <v>0.04147622969263498</v>
+        <v>0.02650240512905455</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.354725364337213</v>
+        <v>0.8353865584312601</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3286706637435159</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3261122592007908</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6031308268911886</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.5245406488449156</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.204933017149926</v>
+        <v>5.762187943389563</v>
       </c>
       <c r="C22">
-        <v>3.174984780288298</v>
+        <v>2.814811114009387</v>
       </c>
       <c r="D22">
-        <v>0.04332264858874524</v>
+        <v>0.02324264285907962</v>
       </c>
       <c r="E22">
-        <v>2.49452201058719</v>
+        <v>2.417769044141252</v>
       </c>
       <c r="F22">
-        <v>3.570514288793703</v>
+        <v>2.355256796186822</v>
       </c>
       <c r="G22">
-        <v>0.0007523578196071384</v>
+        <v>0.1743599506908424</v>
       </c>
       <c r="H22">
-        <v>0.05337148289617666</v>
+        <v>0.04192849534573639</v>
       </c>
       <c r="I22">
-        <v>0.05015277088593528</v>
+        <v>0.02984977081181395</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.445627466899367</v>
+        <v>0.8045840103348354</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3085235283538026</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3260877913882112</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.583373745761925</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.5051864841036053</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.934898304030014</v>
+        <v>5.677803889728864</v>
       </c>
       <c r="C23">
-        <v>3.048456312463429</v>
+        <v>2.811502768202729</v>
       </c>
       <c r="D23">
-        <v>0.04281527707723143</v>
+        <v>0.02413672429782476</v>
       </c>
       <c r="E23">
-        <v>2.395746340198244</v>
+        <v>2.329185573031282</v>
       </c>
       <c r="F23">
-        <v>3.444819597539492</v>
+        <v>2.401732505287967</v>
       </c>
       <c r="G23">
-        <v>0.0007551312206467557</v>
+        <v>0.1069065012940555</v>
       </c>
       <c r="H23">
-        <v>0.04894501309463717</v>
+        <v>0.03915435799088218</v>
       </c>
       <c r="I23">
-        <v>0.04526553213045581</v>
+        <v>0.02795885542081233</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.402428874138153</v>
+        <v>0.8380643882732315</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3251090989702448</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3331278443417887</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.595812203335079</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.5144607497880926</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.904693021005187</v>
+        <v>5.161917348051304</v>
       </c>
       <c r="C24">
-        <v>2.58153085545996</v>
+        <v>2.650208358690463</v>
       </c>
       <c r="D24">
-        <v>0.04042322939375254</v>
+        <v>0.02803835181586045</v>
       </c>
       <c r="E24">
-        <v>2.02772221727669</v>
+        <v>1.992613768177563</v>
       </c>
       <c r="F24">
-        <v>2.965212724206225</v>
+        <v>2.39458645390863</v>
       </c>
       <c r="G24">
-        <v>0.0007657931615912561</v>
+        <v>0.01612019950413224</v>
       </c>
       <c r="H24">
-        <v>0.03375019186534267</v>
+        <v>0.02889996346443846</v>
       </c>
       <c r="I24">
-        <v>0.0291813740813458</v>
+        <v>0.02086857066366932</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.233589210332696</v>
+        <v>0.887218934767084</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3629023590257177</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3269980801882895</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6413135478170489</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.5684334948511882</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.809747883709633</v>
+        <v>4.260856606499033</v>
       </c>
       <c r="C25">
-        <v>2.092184106051093</v>
+        <v>2.17563932439657</v>
       </c>
       <c r="D25">
-        <v>0.03780091858578771</v>
+        <v>0.02684680873152523</v>
       </c>
       <c r="E25">
-        <v>1.641630489831869</v>
+        <v>1.626277175581535</v>
       </c>
       <c r="F25">
-        <v>2.46530287540925</v>
+        <v>2.034409450431653</v>
       </c>
       <c r="G25">
-        <v>0.0007775573640173106</v>
+        <v>0.005830439246299335</v>
       </c>
       <c r="H25">
-        <v>0.02025481284855735</v>
+        <v>0.01833790196881235</v>
       </c>
       <c r="I25">
-        <v>0.01576889341587773</v>
+        <v>0.01275974504393496</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.058026381507077</v>
+        <v>0.7873596221668038</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3491073587331783</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.261273892275419</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6933202757874319</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6209481150946621</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
